--- a/SellyExcel/히트맵 조회 테스트.xlsx
+++ b/SellyExcel/히트맵 조회 테스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/SellyExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E3DF4F-E2C2-3B4C-9941-1B6D36A7C0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AE0A45-A361-9241-A82B-989D4C8C24EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29480" yWindow="11260" windowWidth="27100" windowHeight="15940" xr2:uid="{AFFBC010-AE53-9F41-B4C7-FBE7FD4ED81B}"/>
+    <workbookView xWindow="1560" yWindow="2160" windowWidth="27100" windowHeight="15940" xr2:uid="{AFFBC010-AE53-9F41-B4C7-FBE7FD4ED81B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>표시 위치(대)</t>
   </si>
@@ -88,14 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프레딧 헤더바 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프레딧 AOS MPM 진입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통계 카테고리 열기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,114 +116,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네이티브 화면 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>새창확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>네이티브 화면 로딩시간 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면명(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버스 스택(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면명(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면명(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면명(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면명(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면명(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면명(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면명(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면명(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면명(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면명(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버스 스택(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버스 스택(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버스 스택(4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버스 스택(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버스 스택(6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버스 스택(7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버스 스택(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버스 스택(9)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버스 스택(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리버스 스택(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>히트맵확인</t>
   </si>
   <si>
     <t>html &gt; body &gt; div &gt; div &gt; div:nth-of-type(1) &gt; div:nth-of-type(2) &gt; div &gt; div:nth-of-type(2) &gt; div &gt; div:nth-of-type(1) &gt; div &gt; div:nth-of-type(2) &gt; svg &gt; g:nth-of-type(2) &gt; g:nth-of-type(3) &gt; text,html &gt; body &gt; div &gt; div &gt; div:nth-of-type(1) &gt; div:nth-of-type(2) &gt; div &gt; div:nth-of-type(2) &gt; div &gt; div:nth-of-type(4) &gt; div &gt; div:nth-of-type(2) &gt; svg &gt; g:nth-of-type(1) &gt; g:nth-of-type(32) &gt; text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mpm.imqa.io/mpm/579/dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱버전 드롭박스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째 앱버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱버전 드롭박스 선택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,16 +533,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF6663B-AE1B-C947-BD06-B9D166FBF250}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C6" sqref="C6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="2" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="200.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -692,14 +605,11 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -709,26 +619,32 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -736,10 +652,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -752,10 +668,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -768,280 +684,45 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" t="s">
-        <v>46</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" t="s">
-        <v>37</v>
-      </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C67" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="devload@naver.com" xr:uid="{A7B737A5-0279-C841-8683-80ACEA00FA14}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{B1D18CA4-FBA1-4942-A788-6E52CED6685B}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{91566A77-7739-EE44-A90E-F3867D75C142}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/SellyExcel/히트맵 조회 테스트.xlsx
+++ b/SellyExcel/히트맵 조회 테스트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/SellyExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/Project/IMQA-TestSelly/SellyExcel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AE0A45-A361-9241-A82B-989D4C8C24EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A242BAB-33DB-034E-8841-0E92A71CB45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2160" windowWidth="27100" windowHeight="15940" xr2:uid="{AFFBC010-AE53-9F41-B4C7-FBE7FD4ED81B}"/>
+    <workbookView xWindow="17700" yWindow="5980" windowWidth="35520" windowHeight="24480" xr2:uid="{AFFBC010-AE53-9F41-B4C7-FBE7FD4ED81B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
-  <si>
-    <t>표시 위치(대)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>검증 지표</t>
   </si>
@@ -144,6 +141,18 @@
   </si>
   <si>
     <t>앱버전 드롭박스 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">입력필드 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력필드 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시 위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,9 +544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDF6663B-AE1B-C947-BD06-B9D166FBF250}">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -548,170 +555,181 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="D29" s="1"/>
     </row>
     <row r="39" spans="3:3">
